--- a/biology/Zoologie/Asilus_crabroniformis/Asilus_crabroniformis.xlsx
+++ b/biology/Zoologie/Asilus_crabroniformis/Asilus_crabroniformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asilus crabroniformis, l'asile frelon ou asilide frelon, est une espèce d'insectes diptères brachycères prédateurs appartenant à la famille des asilidés (ou mouches à toison).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Long d'environ 25 mm, parmi les plus grands asilidés d'Europe, ce diptère a les derniers segments de l'abdomen jaunâtres.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe et Afrique du Nord.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte vit dans les campagnes, vole rapidement. Les larves vivent dans les excréments (bouses de vaches).
 </t>
